--- a/ValueSet-PedigreeRelationshipTypes.xlsx
+++ b/ValueSet-PedigreeRelationshipTypes.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-01T03:36:07+00:00</t>
+    <t>2021-10-01T03:36:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-PedigreeRelationshipTypes.xlsx
+++ b/ValueSet-PedigreeRelationshipTypes.xlsx
@@ -7,7 +7,7 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from kin.fhir" r:id="rId4" sheetId="2"/>
+    <sheet name="Include from Family History R" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-01T03:36:23+00:00</t>
+    <t>2021-10-11T05:18:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-PedigreeRelationshipTypes.xlsx
+++ b/ValueSet-PedigreeRelationshipTypes.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-11T05:18:50+00:00</t>
+    <t>2021-10-11T05:19:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-PedigreeRelationshipTypes.xlsx
+++ b/ValueSet-PedigreeRelationshipTypes.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-11T05:19:03+00:00</t>
+    <t>2022-04-22T03:07:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-PedigreeRelationshipTypes.xlsx
+++ b/ValueSet-PedigreeRelationshipTypes.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-22T03:07:53+00:00</t>
+    <t>2022-04-22T03:08:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
